--- a/PBL2022_WEB01/00.日報/日報 (唐川遥).xlsx
+++ b/PBL2022_WEB01/00.日報/日報 (唐川遥).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="49">
   <si>
     <t>氏名</t>
   </si>
@@ -135,6 +135,48 @@
   </si>
   <si>
     <t>お疲れ様です。役割分担を意識しながら行動するのは非常に良いと思います。来週の構想設計書の作成を頑張ってください。</t>
+  </si>
+  <si>
+    <t>進捗会議(議事録)</t>
+  </si>
+  <si>
+    <t>構想設計話し合い</t>
+  </si>
+  <si>
+    <t>要件定義書レビュー(議事録)</t>
+  </si>
+  <si>
+    <t>今回は他の方が作ってくれた構想設計、画面遷移表などの確認、修正をメインに行った。Excelが見にくいという視点では考えていなかったため、構想設計は初めから見やすい状態で持って行けるようにしたい。</t>
+  </si>
+  <si>
+    <t>構想設計、要件定義ともにレビュー待ちの時間が出来てしまい、することの分からない時間が多く出来てしまった。早めにレビュー前まで完成していたにもかかわらずレビュー予約した時間が遅く、早い時間が埋まってしまっていてレビューが遅くなったためこのようなことが起きてしまった。そのため、次回からは授業が始まってすぐにレビューの予約をして手持ち無沙汰な時間を発生させないようにするべきだと思った。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。不要な空き時間を作ってしまったのは私の責任です。申し訳ありません。次回以降、このようなことがないよう努めて参ります。次回は朝会の後、すぐにでも構想設計1回目のレビューを受ける予定です。朝会にて構想設計の確認を行いましょう。</t>
+  </si>
+  <si>
+    <t>マスタスケジュール、構想設計書の作成お疲れ様でした。次回は構想設計書のレビューを行えるようにしましょう。</t>
+  </si>
+  <si>
+    <t>お疲れ様です。画面設計は構想設計と基本設計の段階の仕事だと思いますが、とりあえず要件設計書と構想設計書のレビューOKを貰えるように頑張ってください。</t>
+  </si>
+  <si>
+    <t>朝会</t>
+  </si>
+  <si>
+    <t>スケジュール表記入</t>
+  </si>
+  <si>
+    <t>構想設計作成</t>
+  </si>
+  <si>
+    <t>構想設計書の画面一覧を主に訂正した。元々書いてあった物を元に、講義資料にあった構想設計の書き方を参考に書き直した。要件定義書と名前のずれなどがないか瓜生君と確認をしている。</t>
+  </si>
+  <si>
+    <t>構想設計を、一人に書いてもらっていて周りが余り確認をしなかったため書き方が少し異なり、殆ど書き直すことになってしまった。今後は全て終わって見せて確認というカタチでは無く、少し作業を進めたらとりあえず確認してもらうというようにした方が良いと思った。なるべく細かく皆に見せるよう心がけていきたい。</t>
+  </si>
+  <si>
+    <t>お疲れ様です。今回のようなことが無いように、情報共有の強化を全員で心掛けましょう。</t>
   </si>
 </sst>
 </file>
@@ -294,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -372,6 +414,9 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -2206,7 +2251,7 @@
       <c r="A24" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -3469,7 +3514,7 @@
       <c r="A24" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -4732,7 +4777,7 @@
       <c r="A24" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -7066,7 +7111,7 @@
       </c>
       <c r="C4" s="7">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -7128,28 +7173,52 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="D6" s="30">
+        <v>100.0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="12">
+        <v>40.0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="B8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="10">
@@ -7218,7 +7287,9 @@
       <c r="A16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="22"/>
@@ -7227,7 +7298,9 @@
       <c r="A17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
@@ -7236,7 +7309,9 @@
       <c r="A18" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="22"/>
@@ -7245,17 +7320,21 @@
       <c r="A19" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
+      <c r="B19" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
@@ -7264,7 +7343,9 @@
       <c r="A22" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="20" t="s">
+        <v>41</v>
+      </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="22"/>
@@ -7280,7 +7361,9 @@
       <c r="A24" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="23" t="s">
+        <v>42</v>
+      </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -8329,7 +8412,7 @@
       </c>
       <c r="C4" s="7">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -8391,28 +8474,52 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="12">
+        <v>15.0</v>
+      </c>
+      <c r="D6" s="30">
+        <v>100.0</v>
+      </c>
+      <c r="E6" s="30">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="12">
+        <v>15.0</v>
+      </c>
+      <c r="D7" s="30">
+        <v>100.0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="B8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="12">
+        <v>120.0</v>
+      </c>
+      <c r="D8" s="34">
+        <v>100.0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="10">
@@ -8481,7 +8588,9 @@
       <c r="A16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="22"/>
@@ -8490,7 +8599,9 @@
       <c r="A17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
@@ -8499,7 +8610,9 @@
       <c r="A18" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="22"/>
@@ -8508,17 +8621,21 @@
       <c r="A19" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
+      <c r="B19" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
@@ -8543,7 +8660,7 @@
       <c r="A24" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -9806,7 +9923,7 @@
       <c r="A24" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -11069,7 +11186,7 @@
       <c r="A24" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -12332,7 +12449,7 @@
       <c r="A24" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -13595,7 +13712,7 @@
       <c r="A24" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -14858,7 +14975,7 @@
       <c r="A24" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>

--- a/PBL2022_WEB01/00.日報/日報 (唐川遥).xlsx
+++ b/PBL2022_WEB01/00.日報/日報 (唐川遥).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="58">
   <si>
     <t>氏名</t>
   </si>
@@ -177,6 +177,35 @@
   </si>
   <si>
     <t>お疲れ様です。今回のようなことが無いように、情報共有の強化を全員で心掛けましょう。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。作成している人と確認する人がいるとレビューなどが進みやすくなると思います。次週は、構想設計書がOK貰えて基本設計を作成できるようにしましょう。</t>
+  </si>
+  <si>
+    <t>お疲れ様です。今までの問題点を反省して対策を考えて非常によかったです。次回構想設計書のレビューを通過するために頑張ってください。</t>
+  </si>
+  <si>
+    <t>構想設計</t>
+  </si>
+  <si>
+    <t>基本設計</t>
+  </si>
+  <si>
+    <t>構想設計のレビュー確認、修正をした後構想設計レビューで条件付きOKをもらえたため基本設計に取りかかった。構想設計の画面順で作成している。何枚か画面作成をしていない部分があったのでその分を作成した。</t>
+  </si>
+  <si>
+    <t>前回の反省を踏まえ、今回は他の人が作ったのを確認するようにした。私が作っている基本設計も周りに見てもらうよう心がけた。しかし、資料を見ながら作成してもどのように作れば良いか分からない部分が多くあったため一度早めにレビューをしてもらって書き方が違う部分を指摘してもらいたい。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。基本設計にいち早く取り組んでいただきありがとうございます。確認作業大変重要ですので皆で徹底しましょう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基本設計書の作成、お疲れ様でした。このまま進めて、
+次回のレビューでOKを貰えるように頑張りましょう。
+</t>
+  </si>
+  <si>
+    <t>基本設計書の画面設計を綺麗に作成して非常に良かったです。できるだけ遅れていた分を取り戻していきましょう。</t>
   </si>
 </sst>
 </file>
@@ -8644,7 +8673,9 @@
       <c r="A22" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="22"/>
@@ -8660,7 +8691,9 @@
       <c r="A24" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="23" t="s">
+        <v>50</v>
+      </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
@@ -9709,7 +9742,7 @@
       </c>
       <c r="C4" s="7">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -9771,19 +9804,35 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="D6" s="30">
+        <v>80.0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10">
@@ -9861,7 +9910,9 @@
       <c r="A16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="22"/>
@@ -9870,7 +9921,9 @@
       <c r="A17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
@@ -9879,7 +9932,9 @@
       <c r="A18" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="22"/>
@@ -9888,17 +9943,21 @@
       <c r="A19" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
+      <c r="B19" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
@@ -9907,7 +9966,9 @@
       <c r="A22" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="22"/>
@@ -9923,7 +9984,9 @@
       <c r="A24" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="23" t="s">
+        <v>57</v>
+      </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>

--- a/PBL2022_WEB01/00.日報/日報 (唐川遥).xlsx
+++ b/PBL2022_WEB01/00.日報/日報 (唐川遥).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="64">
   <si>
     <t>氏名</t>
   </si>
@@ -206,6 +206,24 @@
   </si>
   <si>
     <t>基本設計書の画面設計を綺麗に作成して非常に良かったです。できるだけ遅れていた分を取り戻していきましょう。</t>
+  </si>
+  <si>
+    <t>スケジュール</t>
+  </si>
+  <si>
+    <t>基本設計のレビューに行っている間に行った作業がある為、次回話し合いの結果と行った作業の確認を行う必要がある。それぞれの確認をし、修正して次週再度レビューを行いたい。</t>
+  </si>
+  <si>
+    <t>要件定義と構想設計にとても時間がかかってしまったため無事に終わって良かった。設計に時間がかかってしまった分今からの作業はなるべく早く行いたい。要件定義、構想設計はレビューされたことを修正しわすれてしまうことが何度かあったため、基本設計は指摘されたところを全て修正していくと何度もレビューに行かなくて良くなるのでしっかりと皆で確認しながら行いたい。</t>
+  </si>
+  <si>
+    <t>お疲れさまでした。作業が停滞しつつあります。基本設計に無駄な時間を取られないよう、話し合いを活発に行えるように取り組む所存です。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。基本設計と詳細設計を進めて、OK貰えるように頑張りましょう。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。スケジュール管理を徹底していきましょう。</t>
   </si>
 </sst>
 </file>
@@ -11034,8 +11052,8 @@
         <v>44879.0</v>
       </c>
       <c r="C4" s="7">
-        <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <f>SUM(C7:C15)</f>
+        <v>110</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -11097,19 +11115,35 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="12">
+        <v>40.0</v>
+      </c>
+      <c r="D6" s="30">
+        <v>60.0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="12">
+        <v>110.0</v>
+      </c>
+      <c r="D7" s="30">
+        <v>60.0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10">
@@ -11187,7 +11221,9 @@
       <c r="A16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="22"/>
@@ -11196,7 +11232,9 @@
       <c r="A17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
@@ -11205,7 +11243,9 @@
       <c r="A18" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="22"/>
@@ -11214,17 +11254,21 @@
       <c r="A19" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
+      <c r="B19" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
@@ -11233,7 +11277,9 @@
       <c r="A22" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="22"/>
@@ -11249,7 +11295,9 @@
       <c r="A24" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="23" t="s">
+        <v>63</v>
+      </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>

--- a/PBL2022_WEB01/00.日報/日報 (唐川遥).xlsx
+++ b/PBL2022_WEB01/00.日報/日報 (唐川遥).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="71">
   <si>
     <t>氏名</t>
   </si>
@@ -224,6 +224,27 @@
   </si>
   <si>
     <t>お疲れ様でした。スケジュール管理を徹底していきましょう。</t>
+  </si>
+  <si>
+    <t>朝会、振り返り</t>
+  </si>
+  <si>
+    <t>スケジュールのマスターでは無い詳細の方を修正した。その後は基本設計を修正した。また、授業開始直後に行った振り返りで後半どのように開発していくかを考えることが出来た。</t>
+  </si>
+  <si>
+    <t>特に無し</t>
+  </si>
+  <si>
+    <t>スケジュール管理を行っているが、当初予定していたスケジュールより一つ一つにかかる時間が大幅に超えてしまっているため、今日の前半の振り返りで皆が言っていたことをよく考えて今後の開発をしていこうと思った。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。進捗の遅れが大きくなっています。昼休みに12507教室にて作業を行う予定です。都合が付く時で構いませんので是非参加をお願いします。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。作業の遅れがあるので、基本設計書を完成させ開発を始められるように頑張りましょう。</t>
+  </si>
+  <si>
+    <t>お疲れ様でした。スケジュールを管理した上、開発段階の活躍を期待しています。</t>
   </si>
 </sst>
 </file>
@@ -12346,7 +12367,7 @@
       </c>
       <c r="C4" s="7">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -12408,28 +12429,52 @@
       <c r="A6" s="10">
         <v>1.0</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="12">
+        <v>40.0</v>
+      </c>
+      <c r="D6" s="30">
+        <v>50.0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10">
         <v>2.0</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="12">
+        <v>100.0</v>
+      </c>
+      <c r="D7" s="30">
+        <v>80.0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10">
         <v>3.0</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="B8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="12">
+        <v>10.0</v>
+      </c>
+      <c r="D8" s="34">
+        <v>100.0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="10">
@@ -12498,7 +12543,9 @@
       <c r="A16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="22"/>
@@ -12507,7 +12554,9 @@
       <c r="A17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
@@ -12516,7 +12565,9 @@
       <c r="A18" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="22"/>
@@ -12525,17 +12576,21 @@
       <c r="A19" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
+      <c r="B19" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="60.0" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
@@ -12544,7 +12599,9 @@
       <c r="A22" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
       <c r="E22" s="22"/>
@@ -12560,7 +12617,9 @@
       <c r="A24" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="23" t="s">
+        <v>70</v>
+      </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="25"/>
